--- a/EA.xlsx
+++ b/EA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF748E-9E97-43C2-B50F-26BCED2567EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C89836-DDB6-4AC9-90E6-3B8247B52056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="1500" windowWidth="8760" windowHeight="8715" firstSheet="1" activeTab="1" xr2:uid="{E95E882B-5EEA-4EB1-81DD-B70F960720AC}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" firstSheet="1" activeTab="1" xr2:uid="{E95E882B-5EEA-4EB1-81DD-B70F960720AC}"/>
   </bookViews>
   <sheets>
     <sheet name="eaof_5_altamash" sheetId="1" r:id="rId1"/>
@@ -179,12 +179,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,11 +187,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,222 +583,188 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>3.8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>276.95</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>39.020000000000003</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>3.9020000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>3902000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>277.12395702725587</v>
       </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I5" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="5">
         <v>2.099236340313837E-10</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J5" si="1">H2-D2</f>
+      <c r="J2" s="5">
         <v>0.1739570272558808</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="2">(H2-D2)/(H2*D2)</f>
         <v>2.2665564312030042E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K5)</f>
         <v>2.1066740559266241E-6</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">AVERAGE(K2:K5)</f>
         <v>5.3619711998446883E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="4">100*L2/M2</f>
         <v>39.289171414938686</v>
       </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:O5" si="5">LN(F2)</f>
+      <c r="O2" s="6">
         <v>1.3614892422009195</v>
       </c>
-      <c r="P2" s="8">
-        <f t="shared" ref="P2:P5" si="6">1/D2</f>
+      <c r="P2" s="6">
         <v>3.6107600649936812E-3</v>
       </c>
-      <c r="Q2" s="8">
-        <f t="shared" ref="Q2:Q5" si="7">1/H2</f>
+      <c r="Q2" s="6">
         <v>3.6084935085624781E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O5,P2:P5)</f>
         <v>-8710.7652949156945</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2" si="8">SLOPE(O2:O5,Q2:Q5)</f>
         <v>-8337.7853357301065</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="9">100*ABS(S2-R2)/ABS(S2)</f>
         <v>4.4733696559354721</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="3">
         <v>7.61</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>280.76</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>59</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>5.9</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>5900000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>281.23134662255904</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
+      <c r="I3" s="5">
         <v>4.9800705781422039E-9</v>
       </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
+      <c r="J3" s="5">
         <v>0.47134662255905369</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>5.9695478724229881E-6</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" si="5"/>
+      <c r="O3" s="6">
         <v>1.7749523509116738</v>
       </c>
-      <c r="P3" s="8">
-        <f t="shared" si="6"/>
+      <c r="P3" s="6">
         <v>3.5617609346060694E-3</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="7"/>
+      <c r="Q3" s="6">
         <v>3.5557913867336464E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3">
         <v>10.15</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>283.3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>77.91</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>7.7910000000000004</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>7791000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>283.80164387224352</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
+      <c r="I4" s="5">
         <v>2.068036408786611E-9</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
+      <c r="J4" s="5">
         <v>0.50164387224350548</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>6.2392735988787618E-6</v>
       </c>
-      <c r="O4" s="8">
-        <f t="shared" si="5"/>
+      <c r="O4" s="6">
         <v>2.0529692213487212</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" si="6"/>
+      <c r="P4" s="6">
         <v>3.5298270384751147E-3</v>
       </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="7"/>
+      <c r="Q4" s="6">
         <v>3.5235877648762356E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3">
         <v>11.98</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>285.13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>96.58</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>9.6579999999999995</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>9658000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>285.69798785341311</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
+      <c r="I5" s="5">
         <v>1.2335092947068915E-9</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" si="1"/>
+      <c r="J5" s="5">
         <v>0.56798785341311486</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>6.9725068968739993E-6</v>
       </c>
-      <c r="O5" s="8">
-        <f t="shared" si="5"/>
+      <c r="O5" s="6">
         <v>2.2677865874513503</v>
       </c>
-      <c r="P5" s="8">
-        <f t="shared" si="6"/>
+      <c r="P5" s="6">
         <v>3.5071721670816821E-3</v>
       </c>
-      <c r="Q5" s="8">
-        <f t="shared" si="7"/>
+      <c r="Q5" s="6">
         <v>3.5001996601848081E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -808,7 +774,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,176 +846,148 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>6.4279999999999999</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>279.57799999999997</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>59.38</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>5.9379999999999997</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>5938000</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>281.29235342343782</v>
       </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I4" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="5">
         <v>4.9152992787071526E-9</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J4" si="1">H2-D2</f>
+      <c r="J2" s="5">
         <v>1.7143534234378421</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K4" si="2">(H2-D2)/(H2*D2)</f>
         <v>2.1799143921356169E-5</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K4)</f>
         <v>2.2473709774557151E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K4)</f>
         <v>2.4389431616897902E-5</v>
       </c>
-      <c r="N2" s="11">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
+      <c r="N2" s="8">
         <v>9.2145278855069872</v>
       </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:O4" si="4">LN(F2)</f>
+      <c r="O2" s="6">
         <v>1.7813723763415681</v>
       </c>
-      <c r="P2" s="8">
-        <f t="shared" ref="P2:P4" si="5">1/D2</f>
+      <c r="P2" s="6">
         <v>3.5768193491619517E-3</v>
       </c>
-      <c r="Q2" s="8">
-        <f t="shared" ref="Q2:Q4" si="6">1/H2</f>
+      <c r="Q2" s="6">
         <v>3.5550202052405952E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O4,P2:P4)</f>
         <v>-9507.3552205253782</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2" si="7">SLOPE(O2:O5,Q2:Q5)</f>
         <v>-9042.817767101531</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="8">100*ABS(S2-R2)/ABS(S2)</f>
         <v>5.1370874144325933</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="3">
         <v>8.44</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>281.58999999999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>76.63</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>7.6630000000000003</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>7663000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>283.65238056683626</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
+      <c r="I3" s="5">
         <v>2.0864456828917355E-9</v>
       </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
+      <c r="J3" s="5">
         <v>2.062380566836282</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>2.5820529688781447E-5</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" si="4"/>
+      <c r="O3" s="6">
         <v>2.0364035519882675</v>
       </c>
-      <c r="P3" s="8">
-        <f t="shared" si="5"/>
+      <c r="P3" s="6">
         <v>3.5512624738094395E-3</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="6"/>
+      <c r="Q3" s="6">
         <v>3.5254419441206582E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3">
         <v>11.73</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>284.88</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>112.01</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>11.201000000000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>11201000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>286.9686413424136</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
+      <c r="I4" s="5">
         <v>6.0609117724652606E-10</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
+      <c r="J4" s="5">
         <v>2.0886413424136094</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>2.5548621240556089E-5</v>
       </c>
-      <c r="O4" s="8">
-        <f t="shared" si="4"/>
+      <c r="O4" s="6">
         <v>2.4160030600296025</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" si="5"/>
+      <c r="P4" s="6">
         <v>3.5102499297950014E-3</v>
       </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="6"/>
+      <c r="Q4" s="6">
         <v>3.4847013085544452E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>